--- a/Shading Trees/Charts/Production Change.xlsx
+++ b/Shading Trees/Charts/Production Change.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0009457455016672611</v>
+        <v>5.081489703152329</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.000173513893969357</v>
+        <v>0.9322904508444481</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01062040321994573</v>
+        <v>57.06342764513101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.783737388905138e-07</v>
+        <v>0.0009584015970176551</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.000476077380881</v>
+        <v>5375.557963852094</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03322748723439872</v>
+        <v>178.5312888665358</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001847372448537499</v>
+        <v>9.925932585902046</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.262780516408384e-06</v>
+        <v>0.03364997058451991</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01369978510774672</v>
+        <v>73.608945308486</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.665597463026643e-05</v>
+        <v>0.5193323873099871</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.003331703133881092</v>
+        <v>17.9012411031872</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -580,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0003716610372066498</v>
+        <v>1.996933844871819</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.561020664870739e-06</v>
+        <v>0.01376048338715918</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.800316812004894</v>
+        <v>4300.102231881465</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>5.305355443852022e-08</v>
+        <v>0.0002850578084689914</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.009801428415812552</v>
+        <v>52.6630754515063</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.006627774710068479</v>
+        <v>35.61103361600544</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.0003544270439306274</v>
+        <v>1.904336606312427</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.772150426404551e-06</v>
+        <v>0.009521765323370346</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>9.665597463026643e-05</v>
+        <v>0.5193323873099871</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.003261042758822441</v>
+        <v>17.52157982718199</v>
       </c>
       <c r="C22">
         <v>0</v>
